--- a/ParkByeongHyeon/TopicClustering/Drone/packages_DBSCAN_clusters(Drone).xlsx
+++ b/ParkByeongHyeon/TopicClustering/Drone/packages_DBSCAN_clusters(Drone).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>num</t>
   </si>
@@ -28,40 +28,94 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['ExpressLRS/ExpressLRS', 'DroneBridge/DroneBridge', 'd-ronin/dRonin', 'wil3/gymfc', 'espressif/esp-drone', 'mathiasvr/bluejay', 'alexozer/jankdrone', 'dridri/bcflight', 'ExpressLRS/ExpressLRS-Hardware', 'jellyice1986/RaspberryPilot', 'mccloudaero/goliath-quadcopter', 'nlbucki/RAPPIDS', 'simeonradivoev/Quadcopter-Controller', 'michaelgira23/swarms', 'heethesh/eYSIP-2017_Control_and_Algorithms_development_for_Quadcopter', 'MichaelD33/AIO-Quadcopter-Flight-Controller', 'Stanford-BIS/dronestorm', 'felipe-vrgs/QuadMat', 'michaelwro/HummingbirdFCU', 'giusenso/quadcopter-drone-flight-control', 'csteamengine/heimdall-mk1', 'ledroneclub/pickle_evo2_frame', 'mokhwasomssi/stm32_hal_dshot', 'Roboramv2/Multipurpose-Quadcopter', 'pyadmell/flying-car-udacity', 'sintefneodroid/AAV', 'IronicBadger/opentx', 'robert-solomon12/R.Pi-Quad_X', 'qualisys/crazyflie-resources', 'aj-naik/Autonomous-Delivery-Drone', 'jostoehr/Arduino-Copter', 'zecollokaris/Remote-Control-Falcon-1-Quadcopter', 'rodrigo-brito/arduino-marmitocoptero', 'nicofilliol/BBBCopter', 'berkaysaka/ArduinoQuadcopterFlightController', 'HarrrrryLi/Quadcopter-hovering-control', 'RohanVDvivedi/quadF32', 'jellyice1986/RaspberryPilotApp', 'robert-wettstaedt/wifi-drone', 'raphaelauv/quadcopter-raspberry-pi', 'maorshutman/tm4c123g-quadrotor', 'raphaelauv/quadcopter-raspberry-pi', 'maorshutman/tm4c123g-quadrotor', 'AshishKumar4/AnemoiBrain', 'zhanwang-sky/Horizon_evo', 'flying-mole/hud', 'vs5smirnov/QCSVA', 'XionWin/Tron.Net', 'florianL21/drone-atsam', 'htshah/drone-tx', 'tgarr/flying-berry', 'thanhbinh89/mini_quad', 'abhinayh56/NAV-SYS', 'benjaminjnoack/Ian', 'codeThatThinks/Quadcopter-PDB', 'rafaelcostafrf/autonomous_quadrotor_environment', 'vs5smirnov/QCSVB', 'Nnubes256/drone-project', 'pydrone/pydrone', 'RenWal/captain', 'AtLAS-WVU/AtLAS-mobile', 'benjaminjnoack/Ivy', 'aryan-gupta/Quadrino', 'TomasBouda/Betaflight-configs', 'AmeerJ97/Quadcopter-Design-Project-V3.0', 'Rupakpoddar/Drone', 'Rupakpoddar/Drone', 'badman27/FCND-Controls-CPP', 'badman27/FCND-Controls-CPP', 'Christos-14/FC-Nano-2-Motion-Planning']</t>
-  </si>
-  <si>
-    <t>['dnomak/drone-keyboard', 'johnwalicki/Node-RED-Tello-Control', 'SMerrony/tello', 'Virodroid/easyTello', 'SMerrony/telloterm', 'kanekotic/tellojs', '8bitbytes/TelloSdkCoreNet', 'akshayvernekar/telloArduino', 'erviveksoni/raspberrypi-controlled-tello', 'grofattila/dji-tello', 'muety/tello', 'tranchis/TelloSwift', 'johnwalicki/Node-RED-DroneViewer', 'SMerrony/tello-desktop', 'erviveksoni/alexa-controlled-drone', 'Giwi/ryze-tello-sdk', 'wangwuqi/Tello-Python3', 'robagar/tello-asyncio', 'Diallomm/hack_GamesirT1d', 'SMerrony/tellodesk', 'ivanocj/ktello', 'davewalker5/TelloCommander', 'adriacabeza/Yello', 'bittoin/DJI-Tello-Dart-Package', 'akira-kakami/python_opencv_tello', 'fvilmos/tello_object_tracking', 'philips-labs/medical-delivery-drone', 'JacobA2000/TELLO-KEYBOARD-CONTROLS', 'thomas-maurice/flight-control', 'Nooaah/dji-tello', 'arielr52/jtello', 'arekmula/tello_drawer', 'davewalker5/TelloCommanderConsole', 'lawsmat/artello', 'lucafluri/telloFaceDelivery', 'hto/dji-tello', 'DIT-AI-Drone-Course/PPT', 'fvilmos/tello_serial', 'MatsAndT/tello-military-drone', 'tbotaq/tello-node-cli', 'miya0001/node-tello-edu', 'st-user/tello-with-js-joystick-', 'st-user/ojm-drone-remote', 'oscartbeaumont/TelloConnector', 'JonathanStefanov/TelloPlus', 'Eloncase/RyzeTelloSDK', 'windriver-codecamp/alpha_drone', 'JonathanStefanov/TelloPlus', 'oscartbeaumont/TelloConnector', 'windriver-codecamp/alpha_drone', 'Eloncase/RyzeTelloSDK', 'siokas/tellots', 'jhkim3217/Tello-Face-Tracker']</t>
-  </si>
-  <si>
-    <t>['drone-plugins/drone-docker', 'meltwater/drone-cache', 'appleboy/drone-ssh', 'nytimes/drone-gke', 'honestbee/drone-kubernetes', 'Drillster/drone-volume-cache', 'nytimes/drone-gae', 'appleboy/drone-scp', 'appleboy/drone-telegram', 'meltwater/drone-convert-pathschanged', 'drone-plugins/drone-slack', 'drone-plugins/drone-git', 'appleboy/drone-git-push', 'Drillster/drone-rsync', 'drone-plugins/drone-webhook', 'drone-plugins/drone-gitea-release', 'drone-plugins/drone-github-release', 'sinlead/drone-kubectl', 'appleboy/drone-jenkins', 'drone-plugins/drone-coverage', 'Drillster/drone-email', 'target/captains-log', 'drone-plugins/drone-s3', 'drone-plugins/drone-s3-cache', 'sagost/Video_UAV_Tracker-3D', 'drone-plugins/drone-downstream', 'drone-plugins/drone-hugo', 'drone-plugins/drone-s3-sync', 'drone-plugins/drone-ansible', 'drone-plugins/drone-slack-blame', 'appleboy/drone-lambda', 'drone-plugins/drone-ecr', 'drone-plugins/drone-npm', 'honestbee/drone-helm-repo', 'drone-plugins/drone-volume-cache', 'drone-plugins/drone-gh-pages', 'appleboy/drone-facebook', 'cschlosser/drone-ftps', 'drone-plugins/drone-manifest', 'drone-plugins/drone-irc', 'appleboy/drone-packer', 'appleboy/drone-sftp-cache', 'drone-plugins/drone-cache', 'bh90210/dron8s', 'thegeeklab/drone-docker-buildx', 'hectorqin/drone-kubectl', 'honestbee/drone-chartmuseum', 'kdrag0n/drone-ssh-debug', 'drone-plugins/drone-pypi', 'andile-innovation/kubernite', 'drone-plugins/drone-rsync', 'drone-plugins/drone-gpgsign', 'drone-plugins/drone-base', 'drone-plugins/drone-gcs', 'lacajanegra/drone-eks-deployer', 'drone-plugins/drone-sftp', 'drone-plugins/drone-matrix', 'Comcast/drone-cloudfoundry', 'scottlackey/drone-auth-ecr', 'oliver006/drone-cloud-run', 'drone-plugins/drone-marathon', 'drone-plugins/drone-containership', 'naorlivne/drone-kubernetes-apply', 'jonasfranz/drone-crowdin', 'naorlivne/drone-metronome', 'wesleimp/drone-circleci', 'drone-plugins/drone-hg', 'drone-plugins/drone-buildah', 'knovus/drone-openfaas', 'drone-plugins/drone-codecov', 'drone-plugins/drone-devpi', 'drone-plugins/drone-azure-storage', 'oliver006/drone-gcf', 'honestbee/drone-helm', 'finitum/drone-kaniko', 'drone-plugins/drone-dockerhub', 'drone-plugins/drone-codedeploy', 'ethical-jobs/drone-gce', 'go-training/vue-gh-pages-demo', 'drone-plugins/drone-nuget', 'songsterr/drone-kubernetes-job', 'shrimpliu/drone-ssh', 'AlbinoDrought/drone-bitbucket-artifacts', 'nebula-orchestrator/drone-nebula', 'jdamata/drone-teams', 'drone-plugins/drone-bintray', 'drone-plugins/drone-download', 'jetrails/drone-cloudflare-caching', 'go-training/drone-bash-plugin', 'uphy/drone-ansible', 'tdakkota/drone-vk', 'zyclonite/drone-webhook', 'drone-plugins/drone-pushover', 'kiss-my/drone-cloudfront-invalidate', 'akhenakh/drone-waiton', 'drone-plugins/drone-meltwater-cache', 'favadi/drone-downstream-wait', 'zzzsochi/versions', 'kingzcheung/drone-aliyun-oss', 'thegeeklab/drone-github-comment', 'drone-plugins/drone-azure-web-apps', 'Dessia-tech/drone-seafile', 'drone-plugins/drone-github-release-download', 'techknowlogick/drone-b2', 'drone-plugins/drone-curseforge', 'w1ck3dg0ph3r/drone-kubectl', 'gamerslouis/drone-rsync-download', 'owncloud-ci/drone-ansible', 'thegeeklab/drone-docker', 'appleboy/drone-apex-up', 'drone-plugins/drone-cloudcontrol', 'matsubara0507/drone-git-with-ssh', 'ankit-containers/drone-netlify', 'drone-plugins/drone-opsworks', 'sevenmind/drone-shots', 'drone-plugins/drone-greenkeeper', 'UKHomeOffice/drone-docker-overlay', 'HighwayofLife/drone-github-comment', 'xoxys/drone-ansible', 'owncloud-ci/drone-downstream', 'Pr0Ger/drone-crane', 'thegeeklab/drone-plugin-index', 'drone-plugins/drone-opsworks', 'sevenmind/drone-shots', 'jonathanio/drone-s3-sync', 'drone-plugins/drone-greenkeeper', 'UKHomeOffice/drone-docker-overlay', 'HighwayofLife/drone-github-comment', 'xoxys/drone-ansible', 'owncloud-ci/drone-downstream', 'Pr0Ger/drone-crane', 'drone-plugins/drone-deis']</t>
-  </si>
-  <si>
-    <t>['ArduPilot/ardupilot', 'PX4/PX4-Autopilot', 'CopterExpress/clover', 'fan0210/DJIM100-people-detect-track', 'Jaeyoung-Lim/mavros_controllers', 'erdos-project/erdos', 'szebedy/autonomous-drone', 'ctu-mrs/mrs_uav_system', 'bluerobotics/ardusub', 'simmubhangu/eyantra_drone', 'Intelligent-Quads/iq_sim', 'grvcTeam/grvc-ual', 'UnknownFreeOccupied/ufomap', 'jhu-asco/aerial_autonomy', 'ctu-mrs/uav_core', 'ctu-mrs/simulation', 'Intelligent-Quads/iq_gnc', 'neelabhro/ROSNet-A-WMN-based-Framework-using-UAVs-and-Ground-Nodes-for-Disaster-Management', 'CruiserProject/Cruiser-OnboardROS', 'CopterExpress/clover_vm', 'mcgill-robotics/ros-storm32-gimbal', 'Kuppharish/UAV-DDPG', 'ctu-mrs/mrs_uav_controllers', 'darienmt/px4-sitl-ros-example', 'qualisys/ros-resources', 'zhudaoruyi/waypoints', 'mcgill-robotics/ros-interop', 'rhidra/autopilot', 'CopterExpress/clever-show-ds', 'alexMarFar/multi-UAV-simulator', 'jeremyfix/ros-and-unity', 'Project-3-1/acanthis', 'Ayush8120/Improved-MR-DFS-PX4', 'Windfisch/libcopter', 'ctu-mrs/example_ros_packages', 'grvcTeam/gauss', 'yuxiang-gao/hopkins_delivers', 'Malintha/swarmsim', 'ctu-mrs/mrs_optic_flow', 'ctu-mrs/mrs_gazebo_common_resources', 'edimoon777/junghomoon', 'ctu-mrs/mrs_uav_status', 'leoll2/MBZIRC-Drone-Vision', 'adri95cadiz/multi_drone', 'rafaelmaeuer/Autonomous-Indoor-Drone', 'Dora-la-exploradora/line-follower-drone', 'lemontyc/copy-cat-drone', 'Rainerino/robotkit', 'Rainerino/robotkit', 'ctu-mrs/example_ros_uav', 'ctu-mrs/mrs_lib', 'austincorum/Control-and-Visualization-for-Drone-Research-CAPSONE', 'CrashxZ/proj_ws', 'RAFALAMAO/hector_quadrotor_noetic', 'CrashxZ/proj_ws']</t>
-  </si>
-  <si>
-    <t>['hybridgroup/gobot', 'mavlink/qgroundcontrol', 'generalized-intelligence/GAAS', 'dji-sdk/Onboard-SDK', 'yrlu/quadrotor', 'mit-acl/faster', 'auvsi-suas/interop', 'mirkix/ardupilotblue', 'ecmnet/MAVGCL', 'MishkaRogachev/JAGCS', 'DroneBridge/ESP32', 'All4Gis/QGISFMV', 'UAVCAN/gui_tool', 'liourej/CodeDroneDIY', 'michael-fonder/M4Depth', 'Parrot-Developers/olympe', 'Zubax/zubax_gnss', 'sunghoonhong/AirsimDRL', 'andrewcfreeman/UAV-Stereo-Vision', 'LobotomyWeekend/Cooperative-Control', 'jan-dufek/multi-uav-surveillance', 'thecognifly/CogniFly-STL', 'tomAntoine/multi-UAV-simulator', 'Parrot-Developers/groundsdk-android', 'guilyx/FlyingCarUdacity', 'TrifiAmanallah/Ground-station-and-simulator-for-Unmanned-aerial-vehicle', 'sb-im/sdwc', 'AlirezaShamsoshoara/Reinforcement_Learning_Team_Q_learnig_MARL_Multi_Agent_UAV_Spectrum_task', 'UWARG/ZeroPilot-SW', 'Parrot-Developers/groundsdk-manifest', 'Parrot-Developers/groundsdk-ios', 'VCL3D/DronePose', 'm8/UAV-GUI', 'Dronecode/camera-manager-docs', 'DroneBridge/Desktop', 'robotmaker/Arduino_SBUS', 'project-condor/mavigator', 'ctu-mrs/mrs_uav_trackers', 'VCL3D/UAVA', 'Ohara124c41/Hunter-UA-Drone', 'MuonRay/QGISPython', 'copterust/fcfs-rtfm', 'alwinw/muas-sid', 'AlirezaShamsoshoara/Multi-Independent-Agent-Reinforcement-Learning-UAV-Autonomous-Spectrum-QLearning', 'Midgrad/Dreka', 'neelabhro/Data-Telemetry-using-WiFi-based-IoT-Nodes', 'dronet-ai/drobot', 'AhmedHisham1/UAV-Search', 'Zubax/zubax_orel', 'emantas/gryphon_dft', 'JCFLIGHT/JCFLIGHT', 'AdversarialDrones/KimberBee', 'edelsys/colibri', 'fjbelchi/SwiftyMavlink', 'rhthomas/d4-itchen', 'DroneBridge/Docs', 'aliaksei135/FEEG2001-UAV', 'opensensorhub/project-uavdemo', 'jan-dufek/Fotokite', 'Tsmorz/UAV-Code', 'OneSkySystems/OneSkyServices.SDK', 'AlirezaShamsoshoara/Imitation-Learning-Behavioral-Cloning-UAV-Assisted-Communication', 'epticon/ground-station', 'epticon/ground-station', 'mokeam/Admittance-Control-Human-Quadcopter', 'RomanBelokurov/mavlink2websocket', 'MaironW/TCC', 'minarc/UAV', 'aliaksei135/seedpod_ground_risk', 'primo-tech/Pegasus-V1-Flight-System', 'SargisYonan/uav_ml', 'felixriese/alpaca-processing', 'lazpremarathna/awesome-drone', 'raphaelchang/dragonquad-hardware', 'larics/UAV-Eagle', 'koo-ec/SafeDrones', 'mouuff/Pi-UAV', 'volons/simulator', 'primo-tech/RF-Transceiver', 'Ascend-Huawei/HiFly_Drone', 'Fabien-B/PprzGCS', 'Dronolab/antenna-tracking', 'GastonZalba/ol-dji-geozones', 'jesimar/UAV-Toolkit', 'MetaIdea/OpenDroneProject', 'Ashutosh-Badave/1.Backyard_Flyer', 'gogoalexy/DroneSoftwareTimeline', 'grvcTeam/MASp', 'larics/synthetic-UAV', 'ctu-mrs/leader_follower_task', 'zhudaoruyi/waypoint', 'CPS2018/Theses', 'zhudaoruyi/waypoint', 'Educorreia932/CTM-2020-Summer-Intership']</t>
-  </si>
-  <si>
-    <t>['openMVG/openMVG', 'OpenDroneMap/ODM', 'OpenDroneMap/WebODM', 'qzq1111/flask-restful-example', 'dhondta/dronesploit', 'cesarferreira/drone', 'hybridgroup/gort', 'uavpal/disco4g', 'nemonik/hands-on-DevOps', 'layumi/University1652-Baseline', 'samirkumardas/jmuxer', 'tbs-trappy/source_one', 'ethz-asl/mav_active_3d_planning', 'pvdlg/env-ci', 'yankailab/OpenKAI', 'voroshkov/Chorus-RF-Laptimer', 'micasense/imageprocessing', 'scottgchin/delta5_race_timer', 'nickrehm/dRehmFlight', 'unfor19/terraform-multienv', 'go-training/drone-tutorial', 'aqeelanwar/PEDRA', 'PX4/flight_review', 'auxilincom/deploy-drone', 'poshaughnessy/web-bluetooth-parrot-drone', 'bitsbeats/drone-tree-config', 'interuss/dss', 'mit-gfx/multicopter_design', 'prgumd/EVDodgeNet', 'alicfeng/gogs_drone_docker', 'durner/yolo-autonomous-drone', 'douthwja01/OpenMAS', 'fewlaps/flone-android', 'AlloVince/drone-ci-demo', 'appleboy/drone-terraform-in-aws', 'uavpal/beboptwo4g', 'UWARG/hardware', 'xkam1x/Arduino-PWM-Reader', 'dasmehdix/drone-dataset', 'JoshMcguigan/betafpv-f3', 'CopterExpress/clever-show', 'khs1994-docker/ci', 'airmap/AirMapSDK-Swift', 'UAVCAN/specification', 'go-training/drone-laravel-example', 'prgumd/GapFlyt', 'airmap/AirMapSDK-Android', 'Mechazawa/minidrone-js', 'janstuemmel/gogs-drone', 'nagaame/drone-golang-example', 'emredog/FCNN-example', 'PatrickChrist/CDTM-Deep-Learning-Drones', 'kosmastsk/thesis', 'peasant98/Bebop-Autonomy-Vision', 'algolia/pdrone', 'SubhiH/HandGesturesDroneController', 'everhopingandwaiting/gitea_drone_vault_auto', 'immersive-command-system/ImmersiveDroneInterface', 'jackyzha0/DroneNet', 'makarandkapoor/Circuit_Tree_Designs', 'jmccann/drone-in-minikube', 'darienmt/FCND-Term1-P2-3D-Motion-Planning', '3demax/elfie', 'Jaeyoung-Lim/mavros_humantracking', 'mcvsama/xefis', 'opensensorhub/osh-js', 'sarthak268/Obstacle_Avoidance_for_Drone_Delivery', 'bitsbeats/drone-helm3', 'ISKU/Autonomous-Drone-Design', 'BastienM/gogs-drone-compose', 'AIcrowd/droneRL-workshop', 'appleboy/ansible-drone', 'eanswer/LearningToFly', 'dolanor/dsuite', 'lizheming/drone-wechat', 'sfhacks/Virtual-Reality-Drone', 'ps915/source_x', 'openppg/eppg-controller', 'boltgolt/rcl-rc127', 'Drones4STEM/DroneController', 'lovoo/drone-gcloud-helm', 'jumpalottahigh/fpvtips', 'DevinHillenius/brain-powered', 'CoyoteProd/libsumo.net', 'uala/drone-rancher-deploy', 'UAVCAN/yakut', 'heppu/Hand-recognition', 'ps915/source_micro', 'gisma/uavRmp', 'rubegartor/ReelSteady-Joiner', 'stephendade/apsync-Kakute', 'yangwenmai/examples', 'DronaAviation/PlutoX-Sample-Codes', 'patrickelectric/mavlink2rest', 'ArtiomL/f5-ansible', 'HighwayofLife/helm-charts-drone', 'juliagarriga/ARPET', 'VimDrones/open-rtk', 'CCharlieLi/APMC', 'Ohara124c41/FCND-Drone-Building_an_Estimator', 'BevoLEt/Drone_Hijack', 'armswarm/drone', 'ruanbekker/drone-gitea-on-docker', 'DronaAviation/Pluto-V3R-Sample-Codes', 'theroggy/orthoseg', 'eviallet/Drone_Receiver', 'jvirdi2/Kalman_Filter_and_Extended_Kalman_Filter', 'johnelliott/spider-web', 'darienmt/FCND-Term1-P1-Backyard-Flyer', 'bingobob/drone', 'gsilano/MAT-Fly', 'anarres-org/anarres', 'KuoHaoZeng/Visual_Reaction', 'basavarajnavalgund/hector-quadrotor', 'luickk/dji_naza_interface_c-', 'tentone/tello-ros2', 'darienmt/FCND-Term1-P4-3D-Estimation', 'leeebo/ESP-Drone', 'dilmerv/OculusPassthroughDrone', 'komljen/drone-kubectl-helm', 'EmbeddedArea/drone_stm32', 'shridattdudhat/uDrone', 'sighupio/trivy-offline', 'SaltedFishLZ/drone-catcher', 'gaocegege/dronecraft', 'byzheng/missionplanner', 'yassinchabeb/voice-IT', 'blippar/aragorn', 'virtualclone/formation_uavs', 'eugeneALU/CECNL_RealTimeBCI', 'Di-Stream/Di-Stream', 'dipree/alpaca', 'ZekeMedley/arduino-drone-pid', 'Roemer/CrazyServ', 'Hrithik-verma/V-REP-line-following-drone', 'MuonRay/PythonNDVI', 'kor-taeyoon/Chambit', 'zidoshare/auto', 'ruanbekker/drone-ci-testing', 'techknowlogick/drone-nfpm', 'iij/drone-oss', 'layumi/University1652-triplet-loss', 'ArduProject/DroneArduino_v1', 'cloud-garage/diy-drone', 'm-milena/bebop2_drl_landing', 'ShuiXinYun/Drone_With_Robotic_Arm', 'lapazcloud/docker6-k3s', 'eliabiraschi/TelloDrone', 'acim/update-tools', 'FranzTscharf/IRD-CAS', 'dhilipsiva/watchmen', 'anujonthemove/Computer-Vision-for-Drone-Imaging', 'katharostech/lucky', 'darienmt/dji-service', 'TimKam/crazyflie-on-voice', 'CSID-DGU/2019-1-CECD3-Binary-1', 'andreabac3/RL-Autonomous-Networking', 'PeterDaveHello/Drone-GitHub-status-report-bot', 'volker-raschek/drone-charts', 'AndrewKe/PiDrone', 'new-paltz-robotics/ardrone-kinect', 'khurram18/DJI-phantom-4-pro-yolo', 'shaikh-shahid/voice-control-drone', 'Nannigalaxy/wifi-controlled-multiwii', 'niklasmh/drone-vs-jenkins-demo', 'EckoTan0804/flying-guide-dog', 'DroneDB/ddb-desktop', 'eviallet/Drone_Transmitter', 'stephendade/PaGS', 'wangyeee/MiniGCS', 'duongpm/SPSO', 'thisismyrobot/drones', 'org-arl/dronesim', 'Excelion-Partners/resin-drones', 'ThanicsRobotics/ProjectHaloDrone', 'uavpal/disco-storage', 'T-13/DroneVis', 'philgineer/awesome-drone-vision', 'batuhan3526/AirSim-PyTorch-Drone-DDQN-Agent', 'hamzaehsan97/AI_Rescue_Drone', 'Juicymo/drone-ruby', 'abhisheksaxena1998/ADR', 'eshnine/nightly_deploy', 'hyper750/eachine-e511s', 'kuange/drone-docker-compose', 'bandofpv/SAR_Drone', 'vguillet/AIgle_Racer', 'Reyes-fred/Xiaomin', 'pietrodn/px4_gazebo_docker', 'Vicidel/lora_drone', 'Ohara124c41/FCND-Drone-Building_a_Controller', 'ntakouris/dronepilot', 'Huibean/MavMesh', 'Juicymo/drone-wall', 'Prepager/Arduino-Bluetooth-Drone', 'PeterDaveHello/drone-git-sparse-checkout', 'HandongHCI/HandongHCI.github.io', 'vijpandaturtle/Follow-me-drone', 'zenetio/follow-me-deeplearning', 'OhioIon/zynqFC', 'imjasonmiller/portuni', 'CruiserProject/Cruiser-MobileController', 'T-13/DroneTasks', 'Auterion/px4-jsbsim-bridge', 'hovar/hovar-mk1', 'NanoBob/NanoDrone', 'gearboxxsv/UASChecklist', 'VimDrones/realsense-helper', 'waiting33118/drone-cloud-platform3.0', 'recall704/drone-kube', 'imulab-x/drone-webhook-proxy', 'akshatvg/AAGS--Disaster-Managed', 'sub-standard/wAIter', 'oscarbc96/seki', 'lizheming/drone-js-config', 'Black-Lark/UAVTURKEY2020-Autonomous-Flight', 'griffinpuc/pilotlogger', 'wangyeee/OpenHardware', 'ankitshahit/autonomous-drone', 'tdabasinskas/drone-passwordstate', 'Quenty/dns-drone-project', 'layman-n-ish/Drone-Simulation', 'cmengler/pidflight-lap', 'VimDrones/Vimdrones-Docs', 'CPSdrone/CPS', 'aiegoo/finalproject', 'karappo/drone-deploy', 'Akaaba/libmp4', 'clayrisser/drone-postman', 'treeandsea/DroneController', 'clayrisser/drone-init', 'drexly/teamTAKEDOWN', 'leinbg/drone-localhost', 'mcgill-robotics/Firmware', 'Ohara124c41/FCND-Drone-3D_Motion_Planning', 'kor-taeyoon/6-Channel_RF_Receiver_slave_gps', 'karlroush/droningOn', 'sevenmind/drone-pronto', 'uavpal/disco-campan', 'Prasanna-icefire/Vehicle_Pedestrians_detector_droneClips', 'angel-ayala/webots-fire-scene', 'unicef/drone-dpgtoolkit', 'PranshuTople/nrf24_JJRC_H36_gesture', 'kuperiu/drone-teams', 'brunow/DroneVR', 'rappestad/elfiejs', 'fifsky/drone-wechat-work', 'Carbon225/esp32-dshot', 'Malintha/multi_uav_simulator', 'Codesleuth/drone-build-button', 'jemoran42/Arduino_Drone_and_Remote', 'TheBeachLab/mamba', 'shuhan/game-controller', 'Clear-Sight/virtual-gimbal-camera', 'kalibek/infra', 'MacTynow/drone-s3cache', 'karlroush/droneSpectrumMap', 'Raiszo/gym-pendrogone', 'olivier-le-sage/robot-drone-collaboration', 'frederickk/stjoernuithrott', 'ToddHuaJi/FlappyDrone', 'dronet-ai/drogate', 'kor-taeyoon/6-Channel_RF_Receiver_slave_Lidar', 'Nasdin/Drone-Strike-Visualization', 'rinetd/drone-rsync', 'Algatux/drone-wall', 'fixate/drone-secrets', 'generomuga/dplan', 'tlorentzen/Droneprojekt-HTX', 'VimDrones/drone-light-show', 'dhiemaz/GoNe', 'iDuckDark/CEG-Capstone', 'TK-A369/tk-flight-controller-software', 'cmengler/pidflight-lap-gui', 'Airspace-Encounter-Models/em-model-unmanned-recreational', 'xkam1x/Arduino-PPM-Library', 'srz-zumix/ci-specs', 'Raymo111/Drone-Pictures', 'ColasGael/Autonomous-Aircraft', 'Franky333/crazyflie-firmware', 'Lauszus/DroneDraw', 'lewisfish/dolphin-counter', 'robertzhangwenjie/shell-functions', 'caee/MIDroneControl', 'justagist/monocular_visual_graph_slam', 'ndongmo/DroneLib', 'anthok/autel', 'adiego73/thesis', 'ansyble/role-drone', 'Omerdogan3/DronationX', 'jharwinbarrozo/3-ch-diversity-system', 'mainframe/disco4g', 'hanliumaozhi/parrot_drone', 'ansyble/role-drone', 'Omerdogan3/DronationX', 'jharwinbarrozo/3-ch-diversity-system', 'Ferdous12/D', 'ThiagoBarradas/rancher-drone-nginx', 'tac-africa/tac-summit-2020', 'MasterYuan418/ezSCDrone', 'platypii/ParaDrone', 'collombj/aquadrone-positionnement', 'ukyuav/BC5-datalogger', 'perrysou/ud787', 'leipreachan/drone-laws-in-russian', 'SamarthAP/drone-face-tracker', 'ats1999/drone-air-mission-planning', 'CruiserProject/Cruiser-GroundStation', 'arlk/Crazyflie.jl', 'AgPipeline/drone-makeflow', 'cnpcshangbo/OS4-vertical-square-2017a', 'gildasmorvan/arswarm', 'mstrocchi/plantalyzer', 'brusangues/cv-drone', 'parham/inspecteur-intelligent', 'okantorun/Swarm-UAV', 'real-tintin/ugglan', 'rohit-gohri/rohit-gohri.github.io', 'Srujan-D/eYRC_Vitarana_Drone', 'mattdavis90/drone-buildah', 'lovechung/drone-ci', 'aune-io/prismic-drone-trigger', 'danihodovic/drone-promote', 'ifooth/drone-enhanced', 'BitProcessor/drone-docker-buildx-ecr', 'MuonRay/DJI-Drone-DNG-RAW-Batch-Processing-in-Python', 'az-digitalag/Drone-Processing-Pipeline', 'goodwillaz/drone-config-plugin-slack', 'ravising-h/Autonomous-Drone', 'lizheming/drone-render', 'tspannhw/dronemap', 'DaniasHerlambang/animation-drone-simulation', 'wlan0/koki-short-drone-plugin', 'eugenn/FCND-Estimation-CPP', 'AiltonOliveir/Maresia-nautidesign', 'goodwillaz/drone-slack', 'NikLeberg/quadro2', 'rtramon2/raspberrypi4-librealsense-mavlink', 'Keshav2136/FPV-Life', 'germal/MAV_Real_Time_Trajectory_Generator', 'alvarozornoza/DroneKTU', 'cdnjs/cdnjs-drone-ci', 'AplyPlatform/du_developer_codes', 'faruknane/DronePID', 'PandatiX/gocket-chat', 'inceabdullah/Raspberry-Pi-Multiple-ESC-Calibration-for-Drone', 'Francesco-Rose/Python-Interfaces-for-AirSim', 'mcelhennyi/NXP-HoverGames-2', 'aia39/Unsupervised_Anomaly_Detection_from-Multimodal_sensorial_info_of_Drone_by_Isolation-Forest', 'cheeeeeeeeeen/RoR2-ChensGradiusMod', 'mcgill-robotics/flight_review', 'athiyadeviyani/Informatics-Large-Practical', 'STMicroelectronics/STBLEDrone_iOS', 'arthurdjn/flightio', 'carello/cicd-demo', 'SimahoJr/espDroneApp-Android', 'lrusso/ArduDrone', 'skni-kod/DroneSimulator', 'KellyHwong/MiniDrone-StartOver', 'shazib2t/Autonomous_Drone', 'rofafor/radiator-view', 'epticon/copter', 'ChrisTimperley/darjeeling-ardupilot', 'pleiades-s/drone_detector', 'maSchoeller/SnowCapX', 'Super262/DroneNews', 'keiya/PiDrone', 'DaniloVlad/Drone', 'Mittaladitech/AutoLevel-Quard', 'Vozne/Logic', 'Ashutosh-Badave/4.EKF_estimator_for_Drone', 'Ankuraxz/Fire-Detection-and-Alert-System', 'lewj85/ArduinoDrone', 'polarbeargo/FCND-Controls-CPP', 'vraj64/Drone_programming_Tello', 'johnsonwust/ArduinoHoverCraft', 'koki/short-drone-plugin', 'suzuki-shunsuke/ansible-drone-server', 'fr3dn3t/RoflCopter', 'lovoo/drone-gcr', 'SVJayanthi/DroneTrafficSimulation', 'Abhiek187/emergency-response-drone', 'rc-bellergy/drone-notes', 'sean830314/GoCrawler', 'AgPipeline/transformer-soilmask', 'kidier/T.S.O.---manned-drone', 'efremidze/Drone', 'maeteno/my-services', 'jsk6387/gcs', 'FandosA/Cooperative_Coverage_For_Surveillance_Of_3D_Structures', 'SkyRats/viscon', 'BenbenIO/AIY-vision-kit-DRONE', 'samuelelandi/aislandi', 'krzysieknaw/VBA_Drone_photos_selection', 'AssemblyAI/drone-queue-cloudwatch', 'dronehippie/plugin', 'lightcafe/terraform-drone-with-gcp', 'luisffc/ansible-role-pix4dmapper', 'rongfengliang/drone-appdemo', 'redbirdrobotics/corvus', 'jackjamend/pi-lidar-opflow', 'NeilNie/Hexacopter', 'darana/P4P__color-profiles', 'kaitoy/docker-drone-oss', 'horengo/Orengo_Garcia-Molsosa_2019_JAS', 'JRichlen/drone-relay', '3p3r/one-click-drone', 'getyourguide/npm-publish', 'jhernandezb/drone-server-ecr', 'Irismoon/Performance_evaluation', 'Irismoon/SSVEP-AIRDRONE', 'quintoandar/docker-drone-github-tag', 'angelacpd/UAVGimbal', 'lework/ci-demo-vue', 'sPyOpenSource/drone', 'reckonsys/coffeemachine', 'kidier/SAKER---rescue-drone', 'Shreyas-dotcom/DJI-SwarmKit', 'verticalphotoplacer/VerticalPhotoPlacer', 'emdarcher/rolling-spider-server-api', 'Dantevg/Drone', 'eden90267/wdio-demo', 'trblwdreams/the-great-escape-to-nowhere-patches', 'tspannhw/kudrone-nifi', 'uab-projects/smartlify-app', 'jarne/OpenDrone', 'amazething/AMazeFlyDocs', 'fpvindia/fpv-docs', 'DrHAMDANE/Group-of-drones-in-AADL', 'r57zone/Concepts', 'DaniDPX/Chilfeet', 'halsn/docker-ci-stack', 'chibinh8/BL_SW_PLATFORM', 'Rocksus/EMG-DroneControl', 'Ewpratten/dji3d', 'AgPipeline/template-rgb-plot', 'pata98/Pata-Transmitter', 'janstuemmel/drone-cache', 'wil3/gzmocap', 'acceleratorlastorder/drone-project', 'Ohara124c41/FCND-Drone-Backyard_Flyer', 'WolfeTyler/DeepLearning-Keras-Drone-Follow-Me-Project', 'sulerhy/YMFC_AL_Sulerhy', 'KaleabTessera/DroneFlight-Ros', 'robertzhangwenjie/robert-shop', 'cenk1cenk2/drone-semantic-release', 'seandiacono/Nav-AI', 'AnuragGupta806/e-yantra-Vitran-Drone', 'xDevBase/hugo-builder', 'j0e1in/DroneAutonomousSearch', 'AdeelH/drone-companion', 'go-carrot/envci', 'ollie1400/DroneVideoReceiver', 'droneracerskerala/droneracerskerala.github.io', 'kgn95/Inter-Communication-Based-Control-of-Unmanned-Aerial-Vehicles', 'MikeAlvarado/VantTecRB', 'tomvand/cf-deck-carrier', 'suzuki-shunsuke/example-drone-kubernetes-runner', 'Victor-Leung-CA/fire-drone', 'iamKunal/WareHouse-Inventory-Check', 'quintoandar/docker-drone-marathon', 'b7leung/OOWL-Drone-Flight-System', 'godic97/MCRG-OceanDrone', 'kendemu/SkyLifeSDK', 'matsubara0507/drone-haskell', 'edimoon777/AirSim-Deep-Learning-Drone', 'pa5cal/NoFlyMapForDronePilots', 'sthanhng/YOLODrone', 'danpham/drone', 'MuonRay/Image-VideoSegmentationinNIRforPlantDetection', 'ksj961323/drone_contest_project', 'AgPipeline/template-transformer-simple', 'kidier/A.I.-Racer---aoutonomous-racing-drone', 'Toroid-io/drone-mella', 'katharostech/docker_dokuwiki', 'jamesql/Laser-Tag-Drone', 'mach6/drone-delay-config', 'zanona/drone-asana-notify', 'han0110/drone-circleci', 'beanjs-pipeline/drone-wxpusher', 'pyting/drone-golang-example', 'kuetemeier/go-builds', 'cenk1cenk2/drone-track-repository', 'cmur2/asdf-drone', 'McRaeAlex/NimbleFlight', 'NoEnv/drone-s3-sync', 'pyting/drone-node-example', 'imolein/drone-luarocks', 'Leen15/drone-server-nolimit', 'shaswat-dharaiya/Quadcopter', 'sighupio/drone-github-release', 'jiny419/Stealth_drone', 'dkeske/non_weaponized_drone', '0x1a8510f2/DroneExternalConfig', 'ujjawalece/ForestFireFighter', 'MckinstryJ/Tello', 'SeBrul/AutonomousFlightEngineer_ND', 'simplonco/ardrone-remote', 'Desour/digiline_drone', 'tkbky/drone-digital-ocean-terraform', 'HaberkornJonas/Thesis_Data_Processing_Software', 'bitsbeats/drone-docker-matrix', 'chendachao/stone', 'adarshSrivastava01/Drone-Data-Management-App', 'pravahio/py-rpas', 'MuonRay/Ultraviolet_Image_Python_Processing_Codes', 'Christos-14/FC-Nano-3-Controller', 'riccardobl/ScwDroneRunner', 'landrs-toolkit/landrs-drone-TOAST', 'gabrielmacedo/anacdocs', 'hbhb-devloper/cw-front', 'una97/Stealth_drone', 'germal/jankdrone', 'germal/AAE_Notebook_030_3dDrone', 'kidier/Unfinished-3D-printed-drone-frames', 'R-Ingles-92/QRdrone', 'volker-raschek/drone-runner-charts', 'splosch/tension_b', 'liquidm/druid', 'mgrindle/Turn-Sim', 'QuadQuestions/Motor-Test-Data', 'contraslash/automatic-deployment-drone', 'mgrindle/Turn-Sim', 'QuadQuestions/Motor-Test-Data', 'contraslash/automatic-deployment-drone', 'liquidm/elastigo', 'fjustin/drone-repo', 'ylustina/face-recognition-drone', 'jiankaiwang/flight_control_system', 'professor1996/visual_tracking-UAV', 'ruanbekker/demo-drone-mongodb-tests', 'MastaCoder/ResQU', 'waldemirflj/poc.drone', 'pglen/pytsim', 'gov-stack/digital-sky', 'kubestation/kubepub', 'neemiasjnr/golang-microservice-example', 'TinkerPal99/PiCentral', 'adnanhd/hector_quadrotor_swarm', 'hbhb-devloper/fund-center', 'germal/AAE_Notebook_029_3dDrone', 'Huizerd/crazyflie-suite', 'fran6t/ExhibMyDrone', 'samie/ardrone2-mqtt-bridge', 'sadaka-git/robot-raspberry-cppdrone', 'tacodrone/tacodroneSXSW', 'sayhitosandy/UILibraryDemo', 'iamrws/FCND-Controls-CPP', 'mr-kenhoff/XMC_Cleanflight_Doc', 'mingweihe/Auto-flight', 'whutddk/FLIGHT', 'mahakmalik/DroneDeliverySystem', 'germal/rpg_quadrotor_common', 'StefanRudvin/DroneSwarm', 'Jeanyvesbourdoncle/FCND-Controls-CPP', 'anarkioteam/terraform-helm-drone-runner', 'erick-adl/drone-test', 'sikang99/maker-info', 'goosebaobao/instagram-drone', 'hbhb-devloper/message-hub', 'gorka3reta/STM32-BLHeli_S-DShot600', 'eolatham/farm-dashboard-prototype', 'Pfelekis/gpu_vSlam', 'imagescape/drone-tutorial', 'ElwinCabrera/DACS', 'proton21/DIY_RC', 'p404/frone', 'HaberkornJonas/Thesis_Arduino_Modules', 'bertcarnell/drones', 'meurissemax/autonomous-drone', 'germal/RoadDetector', 'maxKudi/Drone-Detection', 'kidier/Action-3D-Printed-drone', 'ElwinCabrera/DACS', 'imagescape/drone-tutorial', 'badman27/Motion-Planning-FCND', 'joedodson/leidos-senior-design', 'ramonmelo/mags', 'Noah-Huppert/NoahHuppert.com', 'simplonco/ardrone-scripts', 'proton21/DIY_RC', 'codenoid/Tectona-Drone-Design', 'p404/frone', 'HaberkornJonas/Thesis_Arduino_Modules', 'bertcarnell/drones', 'maxKudi/Drone-Detection', 'germal/RoadDetector', 'meurissemax/autonomous-drone', 'kidier/Action-3D-Printed-drone', 'Batoch/Drone', 'BinaryLife79/Hawkeye-Pi', 'constraintAutomaton/simulation-char-qui-abat-un-drone', 'BinaryLife79/Hawkeye-Pi', 'germal/rpg_quadrotor_control', 'vrajp21/quadcopter', 'switz/gamehendge', 'TinkerPal99/PYDrone', 'syydev/2019-1-CECD3-Binary-1', 'az5-dev/drone-examples', 'davewalker5/DroneFlightLogDb', 'Farzan1377/Recognaissance', 'harithzainudin/DragonFly', 'hbhb-devloper/publicity-manage', 'hbhb-devloper/job-executor', 'Mazhar004/object-detection-api', 'germal/AAE_Notebook_004_Quaternions', 'germal/AAE_Notebook_007_Bresenham', 'germal/AAE_Notebook_002_GeoNED', 'germal/AAE_Notebook_018_RRT', 'germal/AAE_Notebook_010_VoronoiGraphs', 'canberkarc/Drone-Simulator', 'seedlit/aerial-sem-seg', 'alexpdr/ctc', 'AgPipeline/transformer-rgb-indices', 'debOliveira/parrot-mambo-model-based-design', 'pinam45/UTBM_LO41_DroneDeliverySystem']</t>
-  </si>
-  <si>
-    <t>[('drone', 70), ('quadcopter', 70), ('flight-controller', 15), ('arduino', 15), ('raspberry-pi', 10), ('quadrotor', 9), ('fpv', 6), ('stm32', 6), ('uav', 6), ('remote-control', 5), ('multiwii', 5), ('diy', 5), ('pid', 5), ('mpu6050', 5), ('rc', 4)]</t>
-  </si>
-  <si>
-    <t>[('drone', 53), ('tello', 53), ('dji', 15), ('python', 15), ('tellodrone', 13), ('tello-drone', 8), ('nodejs', 7), ('ryze-tello-drone', 7), ('djitello', 7), ('ryze', 6), ('tello-python3', 6), ('open-source', 6), ('golang', 5), ('go', 4), ('drones', 4)]</t>
-  </si>
-  <si>
-    <t>[('drone', 132), ('drone-plugin', 132), ('drone-ci', 33), ('docker', 27), ('kubernetes', 13), ('ci', 13), ('ci-cd', 7), ('golang', 6), ('cicd', 6), ('kubectl', 6), ('go', 5), ('aws', 5), ('droneio', 4), ('ssh', 4), ('deployment', 4)]</t>
-  </si>
-  <si>
-    <t>[('drone', 55), ('ros', 55), ('uav', 22), ('gazebo', 13), ('robotics', 11), ('px4', 11), ('mavros', 7), ('uas', 6), ('simulation', 6), ('robot-operating-system', 6), ('mavlink', 5), ('quadcopter', 5), ('ardupilot', 4), ('computer-vision', 4), ('autonomous-quadcoptor', 4)]</t>
-  </si>
-  <si>
-    <t>[('uav', 94), ('drone', 94), ('mavlink', 12), ('robotics', 11), ('ardupilot', 11), ('pixhawk', 10), ('uas', 10), ('python', 10), ('drones', 9), ('raspberry-pi', 8), ('arduino', 8), ('px4', 8), ('autopilot', 7), ('flight-controller', 6), ('multicopter', 5)]</t>
-  </si>
-  <si>
-    <t>[('drone', 616), ('docker', 74), ('python', 53), ('drone-ci', 36), ('ci', 32), ('arduino', 31), ('git', 28), ('drones', 25), ('raspberry-pi', 23), ('robotics', 22), ('continuous-delivery', 21), ('deep-learning', 21), ('open-source', 21), ('kubernetes', 19), ('computer-vision', 16)]</t>
+    <t>['hybridgroup/gobot', 'ArduPilot/ardupilot', 'PX4/PX4-Autopilot', 'openMVG/openMVG', 'OpenDroneMap/ODM', 'mavlink/qgroundcontrol', 'OpenDroneMap/WebODM', 'generalized-intelligence/GAAS', 'ExpressLRS/ExpressLRS', 'dji-sdk/Onboard-SDK', 'dhondta/dronesploit', 'cesarferreira/drone', 'hybridgroup/gort', 'DroneBridge/DroneBridge', 'yrlu/quadrotor', 'mit-acl/faster', 'uavpal/disco4g', 'nemonik/hands-on-DevOps', 'layumi/University1652-Baseline', 'tbs-trappy/source_one', 'd-ronin/dRonin', 'ethz-asl/mav_active_3d_planning', 'wil3/gymfc', 'CopterExpress/clover', 'meltwater/drone-cache', 'espressif/esp-drone', 'pvdlg/env-ci', 'fan0210/DJIM100-people-detect-track', 'Jaeyoung-Lim/mavros_controllers', 'appleboy/drone-ssh', 'yankailab/OpenKAI', 'voroshkov/Chorus-RF-Laptimer', 'nytimes/drone-gke', 'micasense/imageprocessing', 'dnomak/drone-keyboard', 'scottgchin/delta5_race_timer', 'mathiasvr/bluejay', 'auvsi-suas/interop', 'alexozer/jankdrone', 'mirkix/ardupilotblue', 'nickrehm/dRehmFlight', 'unfor19/terraform-multienv', 'go-training/drone-tutorial', 'johnwalicki/Node-RED-Tello-Control', 'honestbee/drone-kubernetes', 'aqeelanwar/PEDRA', 'ecmnet/MAVGCL', 'PX4/flight_review', 'MishkaRogachev/JAGCS', 'erdos-project/erdos', 'DroneBridge/ESP32', 'szebedy/autonomous-drone', 'nytimes/drone-gae', 'ctu-mrs/mrs_uav_system', 'auxilincom/deploy-drone', 'poshaughnessy/web-bluetooth-parrot-drone', 'appleboy/drone-scp', 'bitsbeats/drone-tree-config', 'bluerobotics/ardusub', 'All4Gis/QGISFMV', 'interuss/dss', 'meltwater/drone-convert-pathschanged', 'SMerrony/tello', 'dridri/bcflight', 'UAVCAN/gui_tool', 'mit-gfx/multicopter_design', 'Virodroid/easyTello', 'prgumd/EVDodgeNet', 'alicfeng/gogs_drone_docker', 'liourej/CodeDroneDIY', 'simmubhangu/eyantra_drone', 'durner/yolo-autonomous-drone', 'douthwja01/OpenMAS', 'fewlaps/flone-android', 'michael-fonder/M4Depth', 'Parrot-Developers/olympe', 'ExpressLRS/ExpressLRS-Hardware', 'Zubax/zubax_gnss', 'sunghoonhong/AirsimDRL', 'AlloVince/drone-ci-demo', 'appleboy/drone-terraform-in-aws', 'uavpal/beboptwo4g', 'Drillster/drone-rsync', 'UWARG/hardware', 'xkam1x/Arduino-PWM-Reader', 'SMerrony/telloterm', 'dasmehdix/drone-dataset', 'JoshMcguigan/betafpv-f3', 'sinlead/drone-kubectl', 'CopterExpress/clever-show', 'khs1994-docker/ci', 'Intelligent-Quads/iq_sim', 'airmap/AirMapSDK-Swift', 'grvcTeam/grvc-ual', 'appleboy/drone-jenkins', 'UAVCAN/specification', 'prgumd/GapFlyt', 'target/captains-log', 'airmap/AirMapSDK-Android', 'kanekotic/tellojs', 'Mechazawa/minidrone-js', 'jellyice1986/RaspberryPilot', 'janstuemmel/gogs-drone', 'sagost/Video_UAV_Tracker-3D', 'nagaame/drone-golang-example', 'emredog/FCNN-example', 'mccloudaero/goliath-quadcopter', 'PatrickChrist/CDTM-Deep-Learning-Drones', 'andrewcfreeman/UAV-Stereo-Vision', 'LobotomyWeekend/Cooperative-Control', 'kosmastsk/thesis', 'UnknownFreeOccupied/ufomap', 'peasant98/Bebop-Autonomy-Vision', 'algolia/pdrone', 'SubhiH/HandGesturesDroneController', 'jhu-asco/aerial_autonomy', 'jan-dufek/multi-uav-surveillance', '8bitbytes/TelloSdkCoreNet', 'ctu-mrs/uav_core', 'thecognifly/CogniFly-STL', 'appleboy/drone-lambda', 'immersive-command-system/ImmersiveDroneInterface', 'akshayvernekar/telloArduino', 'jackyzha0/DroneNet', 'erviveksoni/raspberrypi-controlled-tello', 'makarandkapoor/Circuit_Tree_Designs', 'jmccann/drone-in-minikube', 'darienmt/FCND-Term1-P2-3D-Motion-Planning', 'Jaeyoung-Lim/mavros_humantracking', 'mcvsama/xefis', 'opensensorhub/osh-js', 'sarthak268/Obstacle_Avoidance_for_Drone_Delivery', 'bitsbeats/drone-helm3', 'ctu-mrs/simulation', 'simeonradivoev/Quadcopter-Controller', 'ISKU/Autonomous-Drone-Design', 'tomAntoine/multi-UAV-simulator', 'michaelgira23/swarms', 'BastienM/gogs-drone-compose', 'honestbee/drone-helm-repo', 'Parrot-Developers/groundsdk-android', 'AIcrowd/droneRL-workshop', 'Intelligent-Quads/iq_gnc', 'eanswer/LearningToFly', 'appleboy/drone-facebook', 'lizheming/drone-wechat', 'cschlosser/drone-ftps', 'ps915/source_x', 'guilyx/FlyingCarUdacity', 'boltgolt/rcl-rc127', 'grofattila/dji-tello', 'muety/tello', 'heethesh/eYSIP-2017_Control_and_Algorithms_development_for_Quadcopter', 'lovoo/drone-gcloud-helm', 'TrifiAmanallah/Ground-station-and-simulator-for-Unmanned-aerial-vehicle', 'sb-im/sdwc', 'AlirezaShamsoshoara/Reinforcement_Learning_Team_Q_learnig_MARL_Multi_Agent_UAV_Spectrum_task', 'CoyoteProd/libsumo.net', 'uala/drone-rancher-deploy', 'UWARG/ZeroPilot-SW', 'tranchis/TelloSwift', 'UAVCAN/yakut', 'heppu/Hand-recognition', 'ps915/source_micro', 'johnwalicki/Node-RED-DroneViewer', 'gisma/uavRmp', 'SMerrony/tello-desktop', 'stephendade/apsync-Kakute', 'yangwenmai/examples', 'neelabhro/ROSNet-A-WMN-based-Framework-using-UAVs-and-Ground-Nodes-for-Disaster-Management', 'CruiserProject/Cruiser-OnboardROS', 'Parrot-Developers/groundsdk-manifest', 'DronaAviation/PlutoX-Sample-Codes', 'patrickelectric/mavlink2rest', 'MichaelD33/AIO-Quadcopter-Flight-Controller', 'ArtiomL/f5-ansible', 'HighwayofLife/helm-charts-drone', 'juliagarriga/ARPET', 'CopterExpress/clover_vm', 'bh90210/dron8s', 'VimDrones/open-rtk', 'CCharlieLi/APMC', 'Parrot-Developers/groundsdk-ios', 'Ohara124c41/FCND-Drone-Building_an_Estimator', 'mcgill-robotics/ros-storm32-gimbal', 'VCL3D/DronePose', 'DronaAviation/Pluto-V3R-Sample-Codes', 'theroggy/orthoseg', 'Kuppharish/UAV-DDPG', 'm8/UAV-GUI', 'ctu-mrs/mrs_uav_controllers', 'darienmt/px4-sitl-ros-example', 'erviveksoni/alexa-controlled-drone', 'hectorqin/drone-kubectl', 'Giwi/ryze-tello-sdk', 'eviallet/Drone_Receiver', 'Dronecode/camera-manager-docs', 'wangwuqi/Tello-Python3', 'jvirdi2/Kalman_Filter_and_Extended_Kalman_Filter', 'johnelliott/spider-web', 'honestbee/drone-chartmuseum', 'DroneBridge/Desktop', 'darienmt/FCND-Term1-P1-Backyard-Flyer', 'bingobob/drone', 'gsilano/MAT-Fly', 'anarres-org/anarres', 'KuoHaoZeng/Visual_Reaction', 'robotmaker/Arduino_SBUS', 'basavarajnavalgund/hector-quadrotor', 'qualisys/ros-resources', 'project-condor/mavigator', 'zhudaoruyi/waypoints', 'kdrag0n/drone-ssh-debug', 'luickk/dji_naza_interface_c-', 'tentone/tello-ros2', 'ctu-mrs/mrs_uav_trackers', 'andile-innovation/kubernite', 'mcgill-robotics/ros-interop', 'darienmt/FCND-Term1-P4-3D-Estimation', 'leeebo/ESP-Drone', 'dilmerv/OculusPassthroughDrone', 'komljen/drone-kubectl-helm', 'EmbeddedArea/drone_stm32', 'Stanford-BIS/dronestorm', 'shridattdudhat/uDrone', 'sighupio/trivy-offline', 'SaltedFishLZ/drone-catcher', 'robagar/tello-asyncio', 'yassinchabeb/voice-IT', 'Diallomm/hack_GamesirT1d', 'blippar/aragorn', 'virtualclone/formation_uavs', 'SMerrony/tellodesk', 'Di-Stream/Di-Stream', 'felipe-vrgs/QuadMat', 'VCL3D/UAVA', 'Hrithik-verma/V-REP-line-following-drone', 'Ohara124c41/Hunter-UA-Drone', 'lacajanegra/drone-eks-deployer', 'MuonRay/QGISPython', 'MuonRay/PythonNDVI', 'ivanocj/ktello', 'davewalker5/TelloCommander', 'rhidra/autopilot', 'michaelwro/HummingbirdFCU', 'copterust/fcfs-rtfm', 'giusenso/quadcopter-drone-flight-control', 'zidoshare/auto', 'ruanbekker/drone-ci-testing', 'csteamengine/heimdall-mk1', 'techknowlogick/drone-nfpm', 'CopterExpress/clever-show-ds', 'layumi/University1652-triplet-loss', 'ArduProject/DroneArduino_v1', 'adriacabeza/Yello', 'cloud-garage/diy-drone', 'm-milena/bebop2_drl_landing', 'alwinw/muas-sid', 'ShuiXinYun/Drone_With_Robotic_Arm', 'lapazcloud/docker6-k3s', 'eliabiraschi/TelloDrone', 'AlirezaShamsoshoara/Multi-Independent-Agent-Reinforcement-Learning-UAV-Autonomous-Spectrum-QLearning', 'ledroneclub/pickle_evo2_frame', 'mokhwasomssi/stm32_hal_dshot', 'Roboramv2/Multipurpose-Quadcopter', 'Midgrad/Dreka', 'acim/update-tools', 'FranzTscharf/IRD-CAS', 'dhilipsiva/watchmen', 'pyadmell/flying-car-udacity', 'anujonthemove/Computer-Vision-for-Drone-Imaging', 'oliver006/drone-cloud-run', 'alexMarFar/multi-UAV-simulator', 'katharostech/lucky', 'sintefneodroid/AAV', 'neelabhro/Data-Telemetry-using-WiFi-based-IoT-Nodes', 'darienmt/dji-service', 'CSID-DGU/2019-1-CECD3-Binary-1', 'andreabac3/RL-Autonomous-Networking', 'PeterDaveHello/Drone-GitHub-status-report-bot', 'dronet-ai/drobot', 'volker-raschek/drone-charts', 'AndrewKe/PiDrone', 'new-paltz-robotics/ardrone-kinect', 'khurram18/DJI-phantom-4-pro-yolo', 'shaikh-shahid/voice-control-drone', 'Nannigalaxy/wifi-controlled-multiwii', 'niklasmh/drone-vs-jenkins-demo', 'IronicBadger/opentx', 'eviallet/Drone_Transmitter', 'stephendade/PaGS', 'AhmedHisham1/UAV-Search', 'wangyeee/MiniGCS', 'duongpm/SPSO', 'org-arl/dronesim', 'Excelion-Partners/resin-drones', 'ThanicsRobotics/ProjectHaloDrone', 'robert-solomon12/R.Pi-Quad_X', 'uavpal/disco-storage', 'T-13/DroneVis', 'bittoin/DJI-Tello-Dart-Package', 'philgineer/awesome-drone-vision', 'batuhan3526/AirSim-PyTorch-Drone-DDQN-Agent', 'naorlivne/drone-kubernetes-apply', 'Zubax/zubax_orel', 'hamzaehsan97/AI_Rescue_Drone', 'qualisys/crazyflie-resources', 'abhisheksaxena1998/ADR', 'eshnine/nightly_deploy', 'naorlivne/drone-metronome', 'wesleimp/drone-circleci', 'hyper750/eachine-e511s', 'knovus/drone-openfaas', 'aj-naik/Autonomous-Delivery-Drone', 'bandofpv/SAR_Drone', 'vguillet/AIgle_Racer', 'Reyes-fred/Xiaomin', 'emantas/gryphon_dft', 'pietrodn/px4_gazebo_docker', 'Vicidel/lora_drone', 'jostoehr/Arduino-Copter', 'Ohara124c41/FCND-Drone-Building_a_Controller', 'ntakouris/dronepilot', 'Huibean/MavMesh', 'Prepager/Arduino-Bluetooth-Drone', 'JCFLIGHT/JCFLIGHT', 'PeterDaveHello/drone-git-sparse-checkout', 'HandongHCI/HandongHCI.github.io', 'vijpandaturtle/Follow-me-drone', 'zenetio/follow-me-deeplearning', 'AdversarialDrones/KimberBee', 'OhioIon/zynqFC', 'imjasonmiller/portuni', 'CruiserProject/Cruiser-MobileController', 'T-13/DroneTasks', 'Auterion/px4-jsbsim-bridge', 'hovar/hovar-mk1', 'NanoBob/NanoDrone', 'gearboxxsv/UASChecklist', 'waiting33118/drone-cloud-platform3.0', 'zecollokaris/Remote-Control-Falcon-1-Quadcopter', 'akshatvg/AAGS--Disaster-Managed', 'sub-standard/wAIter', 'rodrigo-brito/arduino-marmitocoptero', 'oscarbc96/seki', 'lizheming/drone-js-config', 'Black-Lark/UAVTURKEY2020-Autonomous-Flight', 'griffinpuc/pilotlogger', 'wangyeee/OpenHardware', 'ankitshahit/autonomous-drone', 'tdabasinskas/drone-passwordstate', 'layman-n-ish/Drone-Simulation', 'cmengler/pidflight-lap', 'edelsys/colibri', 'aiegoo/finalproject', 'honestbee/drone-helm', 'jeremyfix/ros-and-unity', 'finitum/drone-kaniko', 'karappo/drone-deploy', 'clayrisser/drone-postman', 'fjbelchi/SwiftyMavlink', 'rhthomas/d4-itchen', 'drexly/teamTAKEDOWN', 'Project-3-1/acanthis', 'leinbg/drone-localhost', 'Ohara124c41/FCND-Drone-3D_Motion_Planning', 'akira-kakami/python_opencv_tello', 'kor-taeyoon/6-Channel_RF_Receiver_slave_gps', 'fvilmos/tello_object_tracking', 'karlroush/droningOn', 'sevenmind/drone-pronto', 'uavpal/disco-campan', 'angel-ayala/webots-fire-scene', 'unicef/drone-dpgtoolkit', 'PranshuTople/nrf24_JJRC_H36_gesture', 'kuperiu/drone-teams', 'Ayush8120/Improved-MR-DFS-PX4', 'Windfisch/libcopter', 'brunow/DroneVR', 'DroneBridge/Docs', 'fifsky/drone-wechat-work', 'Carbon225/esp32-dshot', 'Malintha/multi_uav_simulator', 'jemoran42/Arduino_Drone_and_Remote', 'aliaksei135/FEEG2001-UAV', 'TheBeachLab/mamba', 'Clear-Sight/virtual-gimbal-camera', 'MacTynow/drone-s3cache', 'Raiszo/gym-pendrogone', 'olivier-le-sage/robot-drone-collaboration', 'philips-labs/medical-delivery-drone', 'nicofilliol/BBBCopter', 'ctu-mrs/example_ros_packages', 'ethical-jobs/drone-gce', 'Nasdin/Drone-Strike-Visualization', 'rinetd/drone-rsync', 'tlorentzen/Droneprojekt-HTX', 'berkaysaka/ArduinoQuadcopterFlightController', 'dhiemaz/GoNe', 'TK-A369/tk-flight-controller-software', 'opensensorhub/project-uavdemo', 'cmengler/pidflight-lap-gui', 'Airspace-Encounter-Models/em-model-unmanned-recreational', 'HarrrrryLi/Quadcopter-hovering-control', 'xkam1x/Arduino-PPM-Library', 'jan-dufek/Fotokite', 'srz-zumix/ci-specs', 'Tsmorz/UAV-Code', 'ColasGael/Autonomous-Aircraft', 'OneSkySystems/OneSkyServices.SDK', 'RohanVDvivedi/quadF32', 'grvcTeam/gauss', 'lewisfish/dolphin-counter', 'AlirezaShamsoshoara/Imitation-Learning-Behavioral-Cloning-UAV-Assisted-Communication', 'jellyice1986/RaspberryPilotApp', 'robertzhangwenjie/shell-functions', 'caee/MIDroneControl', 'justagist/monocular_visual_graph_slam', 'ndongmo/DroneLib', 'anthok/autel', 'adiego73/thesis', 'robert-wettstaedt/wifi-drone', 'raphaelauv/quadcopter-raspberry-pi', 'maorshutman/tm4c123g-quadrotor', 'Omerdogan3/DronationX', 'epticon/ground-station', 'jharwinbarrozo/3-ch-diversity-system', 'mainframe/disco4g', 'raphaelauv/quadcopter-raspberry-pi', 'maorshutman/tm4c123g-quadrotor', 'Omerdogan3/DronationX', 'epticon/ground-station', 'jharwinbarrozo/3-ch-diversity-system', 'Ferdous12/D', 'JacobA2000/TELLO-KEYBOARD-CONTROLS', 'platypii/ParaDrone', 'collombj/aquadrone-positionnement', 'songsterr/drone-kubernetes-job', 'ukyuav/BC5-datalogger', 'perrysou/ud787', 'AshishKumar4/AnemoiBrain', 'shrimpliu/drone-ssh', 'SamarthAP/drone-face-tracker', 'mokeam/Admittance-Control-Human-Quadcopter', 'CruiserProject/Cruiser-GroundStation', 'zhanwang-sky/Horizon_evo', 'RomanBelokurov/mavlink2websocket', 'MaironW/TCC', 'cnpcshangbo/OS4-vertical-square-2017a', 'gildasmorvan/arswarm', 'mstrocchi/plantalyzer', 'brusangues/cv-drone', 'parham/inspecteur-intelligent', 'real-tintin/ugglan', 'rohit-gohri/rohit-gohri.github.io', 'thomas-maurice/flight-control', 'nebula-orchestrator/drone-nebula', 'lovechung/drone-ci', 'aune-io/prismic-drone-trigger', 'danihodovic/drone-promote', 'ifooth/drone-enhanced', 'BitProcessor/drone-docker-buildx-ecr', 'az-digitalag/Drone-Processing-Pipeline', 'goodwillaz/drone-config-plugin-slack', 'ravising-h/Autonomous-Drone', 'tspannhw/dronemap', 'wlan0/koki-short-drone-plugin', 'flying-mole/hud', 'vs5smirnov/QCSVA', 'goodwillaz/drone-slack', 'NikLeberg/quadro2', 'rtramon2/raspberrypi4-librealsense-mavlink', 'minarc/UAV', 'alvarozornoza/DroneKTU', 'cdnjs/cdnjs-drone-ci', 'Nooaah/dji-tello', 'yuxiang-gao/hopkins_delivers', 'AplyPlatform/du_developer_codes', 'aliaksei135/seedpod_ground_risk', 'faruknane/DronePID', 'arielr52/jtello', 'PandatiX/gocket-chat', 'inceabdullah/Raspberry-Pi-Multiple-ESC-Calibration-for-Drone', 'Francesco-Rose/Python-Interfaces-for-AirSim', 'mcelhennyi/NXP-HoverGames-2', 'aia39/Unsupervised_Anomaly_Detection_from-Multimodal_sensorial_info_of_Drone_by_Isolation-Forest', 'cheeeeeeeeeen/RoR2-ChensGradiusMod', 'primo-tech/Pegasus-V1-Flight-System', 'SargisYonan/uav_ml', 'athiyadeviyani/Informatics-Large-Practical', 'STMicroelectronics/STBLEDrone_iOS', 'htshah/drone-tx', 'arthurdjn/flightio', 'carello/cicd-demo', 'SimahoJr/espDroneApp-Android', 'lrusso/ArduDrone', 'arekmula/tello_drawer', 'skni-kod/DroneSimulator', 'KellyHwong/MiniDrone-StartOver', 'shazib2t/Autonomous_Drone', 'rofafor/radiator-view', 'epticon/copter', 'ChrisTimperley/darjeeling-ardupilot', 'pleiades-s/drone_detector', 'maSchoeller/SnowCapX', 'felixriese/alpaca-processing', 'Super262/DroneNews', 'keiya/PiDrone', 'Malintha/swarmsim', 'DaniloVlad/Drone', 'davewalker5/TelloCommanderConsole', 'tgarr/flying-berry', 'Mittaladitech/AutoLevel-Quard', 'lazpremarathna/awesome-drone', 'Ashutosh-Badave/4.EKF_estimator_for_Drone', 'thanhbinh89/mini_quad', 'Ankuraxz/Fire-Detection-and-Alert-System', 'raphaelchang/dragonquad-hardware', 'abhinayh56/NAV-SYS', 'polarbeargo/FCND-Controls-CPP', 'vraj64/Drone_programming_Tello', 'lawsmat/artello', 'koki/short-drone-plugin', 'lovoo/drone-gcr', 'Abhiek187/emergency-response-drone', 'rc-bellergy/drone-notes', 'sean830314/GoCrawler', 'larics/UAV-Eagle', 'efremidze/Drone', 'jsk6387/gcs', 'codeThatThinks/Quadcopter-PDB', 'FandosA/Cooperative_Coverage_For_Surveillance_Of_3D_Structures', 'kiss-my/drone-cloudfront-invalidate', 'SkyRats/viscon', 'samuelelandi/aislandi', 'krzysieknaw/VBA_Drone_photos_selection', 'AssemblyAI/drone-queue-cloudwatch', 'lightcafe/terraform-drone-with-gcp', 'luisffc/ansible-role-pix4dmapper', 'rongfengliang/drone-appdemo', 'jackjamend/pi-lidar-opflow', 'NeilNie/Hexacopter', 'lucafluri/telloFaceDelivery', '3p3r/one-click-drone', 'ctu-mrs/mrs_optic_flow', 'akhenakh/drone-waiton', 'koo-ec/SafeDrones', 'jhernandezb/drone-server-ecr', 'lework/ci-demo-vue', 'sPyOpenSource/drone', 'rafaelcostafrf/autonomous_quadrotor_environment', 'reckonsys/coffeemachine', 'Shreyas-dotcom/DJI-SwarmKit', 'verticalphotoplacer/VerticalPhotoPlacer', 'emdarcher/rolling-spider-server-api', 'Dantevg/Drone', 'eden90267/wdio-demo', 'vs5smirnov/QCSVB', 'favadi/drone-downstream-wait', 'zzzsochi/versions', 'tspannhw/kudrone-nifi', 'mouuff/Pi-UAV', 'uab-projects/smartlify-app', 'jarne/OpenDrone', 'volons/simulator', 'primo-tech/RF-Transceiver', 'Nnubes256/drone-project', 'ctu-mrs/mrs_gazebo_common_resources', 'Ascend-Huawei/HiFly_Drone', 'halsn/docker-ci-stack', 'chibinh8/BL_SW_PLATFORM', 'edimoon777/junghomoon', 'Rocksus/EMG-DroneControl', 'hto/dji-tello', 'Ewpratten/dji3d', 'AgPipeline/template-rgb-plot', 'pata98/Pata-Transmitter', 'Fabien-B/PprzGCS', 'janstuemmel/drone-cache', 'wil3/gzmocap', 'acceleratorlastorder/drone-project', 'Dronolab/antenna-tracking', 'Ohara124c41/FCND-Drone-Backyard_Flyer', 'sulerhy/YMFC_AL_Sulerhy', 'KaleabTessera/DroneFlight-Ros', 'robertzhangwenjie/robert-shop', 'cenk1cenk2/drone-semantic-release', 'GastonZalba/ol-dji-geozones', 'seandiacono/Nav-AI', 'ctu-mrs/mrs_uav_status', 'DIT-AI-Drone-Course/PPT', 'AnuragGupta806/e-yantra-Vitran-Drone', 'xDevBase/hugo-builder', 'fvilmos/tello_serial', 'j0e1in/DroneAutonomousSearch', 'AdeelH/drone-companion', 'go-carrot/envci', 'ollie1400/DroneVideoReceiver', 'jesimar/UAV-Toolkit', 'kgn95/Inter-Communication-Based-Control-of-Unmanned-Aerial-Vehicles', 'MikeAlvarado/VantTecRB', 'tomvand/cf-deck-carrier', 'suzuki-shunsuke/example-drone-kubernetes-runner', 'leoll2/MBZIRC-Drone-Vision', 'iamKunal/WareHouse-Inventory-Check', 'b7leung/OOWL-Drone-Flight-System', 'pydrone/pydrone', 'edimoon777/AirSim-Deep-Learning-Drone', 'sthanhng/YOLODrone', 'kidier/A.I.-Racer---aoutonomous-racing-drone', 'Toroid-io/drone-mella', 'jamesql/Laser-Tag-Drone', 'RenWal/captain', 'zanona/drone-asana-notify', 'han0110/drone-circleci', 'pyting/drone-golang-example', 'MatsAndT/tello-military-drone', 'kuetemeier/go-builds', 'cenk1cenk2/drone-track-repository', 'McRaeAlex/NimbleFlight', 'NoEnv/drone-s3-sync', 'w1ck3dg0ph3r/drone-kubectl', 'pyting/drone-node-example', 'imolein/drone-luarocks', 'Leen15/drone-server-nolimit', 'shaswat-dharaiya/Quadcopter', 'sighupio/drone-github-release', 'adri95cadiz/multi_drone', 'rafaelmaeuer/Autonomous-Indoor-Drone', 'Dora-la-exploradora/line-follower-drone', 'dkeske/non_weaponized_drone', 'MetaIdea/OpenDroneProject', '0x1a8510f2/DroneExternalConfig', 'Ashutosh-Badave/1.Backyard_Flyer', 'appleboy/drone-apex-up', 'ujjawalece/ForestFireFighter', 'MckinstryJ/Tello', 'SeBrul/AutonomousFlightEngineer_ND', 'gogoalexy/DroneSoftwareTimeline', 'lemontyc/copy-cat-drone', 'Desour/digiline_drone', 'tkbky/drone-digital-ocean-terraform', 'HaberkornJonas/Thesis_Data_Processing_Software', 'bitsbeats/drone-docker-matrix', 'grvcTeam/MASp', 'adarshSrivastava01/Drone-Data-Management-App', 'tbotaq/tello-node-cli', 'MuonRay/Ultraviolet_Image_Python_Processing_Codes', 'Christos-14/FC-Nano-3-Controller', 'riccardobl/ScwDroneRunner', 'hbhb-devloper/cw-front', 'una97/Stealth_drone', 'germal/AAE_Notebook_030_3dDrone', 'volker-raschek/drone-runner-charts', 'splosch/tension_b', 'mgrindle/Turn-Sim', 'QuadQuestions/Motor-Test-Data', 'AtLAS-WVU/AtLAS-mobile', 'Rainerino/robotkit', 'mgrindle/Turn-Sim', 'QuadQuestions/Motor-Test-Data', 'Rainerino/robotkit', 'fjustin/drone-repo', 'miya0001/node-tello-edu', 'ruanbekker/demo-drone-mongodb-tests', 'MastaCoder/ResQU', 'waldemirflj/poc.drone', 'pglen/pytsim', 'kubestation/kubepub', 'neemiasjnr/golang-microservice-example', 'ctu-mrs/example_ros_uav', 'TinkerPal99/PiCentral', 'adnanhd/hector_quadrotor_swarm', 'st-user/tello-with-js-joystick-', 'hbhb-devloper/fund-center', 'germal/AAE_Notebook_029_3dDrone', 'larics/synthetic-UAV', 'Huizerd/crazyflie-suite', 'samie/ardrone2-mqtt-bridge', 'sadaka-git/robot-raspberry-cppdrone', 'tacodrone/tacodroneSXSW', 'sayhitosandy/UILibraryDemo', 'iamrws/FCND-Controls-CPP', 'aryan-gupta/Quadrino', 'mingweihe/Auto-flight', 'ctu-mrs/mrs_lib', 'StefanRudvin/DroneSwarm', 'Jeanyvesbourdoncle/FCND-Controls-CPP', 'anarkioteam/terraform-helm-drone-runner', 'austincorum/Control-and-Visualization-for-Drone-Research-CAPSONE', 'erick-adl/drone-test', 'sikang99/maker-info', 'AmeerJ97/Quadcopter-Design-Project-V3.0', 'st-user/ojm-drone-remote', 'ctu-mrs/leader_follower_task', 'hbhb-devloper/message-hub', 'gorka3reta/STM32-BLHeli_S-DShot600', 'ankit-containers/drone-netlify', 'Pfelekis/gpu_vSlam', 'imagescape/drone-tutorial', 'ElwinCabrera/DACS', 'sevenmind/drone-shots', 'proton21/DIY_RC', 'zhudaoruyi/waypoint', 'UKHomeOffice/drone-docker-overlay', 'HaberkornJonas/Thesis_Arduino_Modules', 'oscartbeaumont/TelloConnector', 'JonathanStefanov/TelloPlus', 'HighwayofLife/drone-github-comment', 'CrashxZ/proj_ws', 'bertcarnell/drones', 'Rupakpoddar/Drone', 'meurissemax/autonomous-drone', 'Eloncase/RyzeTelloSDK', 'maxKudi/Drone-Detection', 'windriver-codecamp/alpha_drone', 'kidier/Action-3D-Printed-drone', 'ElwinCabrera/DACS', 'imagescape/drone-tutorial', 'sevenmind/drone-shots', 'badman27/Motion-Planning-FCND', 'jonathanio/drone-s3-sync', 'CPS2018/Theses', 'joedodson/leidos-senior-design', 'RAFALAMAO/hector_quadrotor_noetic', 'ramonmelo/mags', 'Noah-Huppert/NoahHuppert.com', 'proton21/DIY_RC', 'JonathanStefanov/TelloPlus', 'HaberkornJonas/Thesis_Arduino_Modules', 'oscartbeaumont/TelloConnector', 'UKHomeOffice/drone-docker-overlay', 'zhudaoruyi/waypoint', 'bertcarnell/drones', 'CrashxZ/proj_ws', 'HighwayofLife/drone-github-comment', 'maxKudi/Drone-Detection', 'windriver-codecamp/alpha_drone', 'Rupakpoddar/Drone', 'Eloncase/RyzeTelloSDK', 'meurissemax/autonomous-drone', 'kidier/Action-3D-Printed-drone', 'Batoch/Drone', 'BinaryLife79/Hawkeye-Pi', 'badman27/FCND-Controls-CPP', 'constraintAutomaton/simulation-char-qui-abat-un-drone', 'badman27/FCND-Controls-CPP', 'BinaryLife79/Hawkeye-Pi', 'siokas/tellots', 'switz/gamehendge', 'syydev/2019-1-CECD3-Binary-1', 'az5-dev/drone-examples', 'davewalker5/DroneFlightLogDb', 'Farzan1377/Recognaissance', 'Christos-14/FC-Nano-2-Motion-Planning', 'Educorreia932/CTM-2020-Summer-Intership', 'hbhb-devloper/publicity-manage', 'jhkim3217/Tello-Face-Tracker', 'hbhb-devloper/job-executor', 'Mazhar004/object-detection-api', 'canberkarc/Drone-Simulator', 'debOliveira/parrot-mambo-model-based-design', 'pinam45/UTBM_LO41_DroneDeliverySystem']</t>
+  </si>
+  <si>
+    <t>['qzq1111/flask-restful-example', 'dolanor/dsuite', 'kalibek/infra', 'maeteno/my-services', 'kaitoy/docker-drone-oss', 'quintoandar/docker-drone-marathon', 'katharostech/docker_dokuwiki', 'chendachao/stone', 'liquidm/druid', 'alexpdr/ctc']</t>
+  </si>
+  <si>
+    <t>['samirkumardas/jmuxer', 'everhopingandwaiting/gitea_drone_vault_auto', '3demax/elfie', 'sfhacks/Virtual-Reality-Drone', 'Drones4STEM/DroneController', 'DevinHillenius/brain-powered', 'rubegartor/ReelSteady-Joiner', 'BevoLEt/Drone_Hijack', 'byzheng/missionplanner', 'eugeneALU/CECNL_RealTimeBCI', 'kor-taeyoon/Chambit', 'iij/drone-oss', 'EckoTan0804/flying-guide-dog', 'DroneDB/ddb-desktop', 'kuange/drone-docker-compose', 'VimDrones/realsense-helper', 'recall704/drone-kube', 'Quenty/dns-drone-project', 'VimDrones/Vimdrones-Docs', 'CPSdrone/CPS', 'Akaaba/libmp4', 'mcgill-robotics/Firmware', 'Prasanna-icefire/Vehicle_Pedestrians_detector_droneClips', 'rappestad/elfiejs', 'Codesleuth/drone-build-button', 'shuhan/game-controller', 'frederickk/stjoernuithrott', 'ToddHuaJi/FlappyDrone', 'dronet-ai/drogate', 'kor-taeyoon/6-Channel_RF_Receiver_slave_Lidar', 'Algatux/drone-wall', 'fixate/drone-secrets', 'generomuga/dplan', 'VimDrones/drone-light-show', 'iDuckDark/CEG-Capstone', 'Raymo111/Drone-Pictures', 'Lauszus/DroneDraw', 'hanliumaozhi/parrot_drone', 'tac-africa/tac-summit-2020', 'MasterYuan418/ezSCDrone', 'leipreachan/drone-laws-in-russian', 'ats1999/drone-air-mission-planning', 'AgPipeline/drone-makeflow', 'Srujan-D/eYRC_Vitarana_Drone', 'lizheming/drone-render', 'DaniasHerlambang/animation-drone-simulation', 'eugenn/FCND-Estimation-CPP', 'germal/MAV_Real_Time_Trajectory_Generator', 'mcgill-robotics/flight_review', 'Vozne/Logic', 'suzuki-shunsuke/ansible-drone-server', 'fr3dn3t/RoflCopter', 'AgPipeline/transformer-soilmask', 'kidier/T.S.O.---manned-drone', 'dronehippie/plugin', 'redbirdrobotics/corvus', 'darana/P4P__color-profiles', 'horengo/Orengo_Garcia-Molsosa_2019_JAS', 'JRichlen/drone-relay', 'getyourguide/npm-publish', 'Irismoon/Performance_evaluation', 'Irismoon/SSVEP-AIRDRONE', 'quintoandar/docker-drone-github-tag', 'angelacpd/UAVGimbal', 'kidier/SAKER---rescue-drone', 'trblwdreams/the-great-escape-to-nowhere-patches', 'amazething/AMazeFlyDocs', 'DrHAMDANE/Group-of-drones-in-AADL', 'r57zone/Concepts', 'DaniDPX/Chilfeet', 'WolfeTyler/DeepLearning-Keras-Drone-Follow-Me-Project', 'droneracerskerala/droneracerskerala.github.io', 'Victor-Leung-CA/fire-drone', 'kendemu/SkyLifeSDK', 'matsubara0507/drone-haskell', 'pa5cal/NoFlyMapForDronePilots', 'MuonRay/Image-VideoSegmentationinNIRforPlantDetection', 'ksj961323/drone_contest_project', 'AgPipeline/template-transformer-simple', 'mach6/drone-delay-config', 'beanjs-pipeline/drone-wxpusher', 'jiny419/Stealth_drone', 'simplonco/ardrone-remote', 'pravahio/py-rpas', 'landrs-toolkit/landrs-drone-TOAST', 'gabrielmacedo/anacdocs', 'germal/jankdrone', 'kidier/Unfinished-3D-printed-drone-frames', 'R-Ingles-92/QRdrone', 'liquidm/elastigo', 'ylustina/face-recognition-drone', 'professor1996/visual_tracking-UAV', 'gov-stack/digital-sky', 'fran6t/ExhibMyDrone', 'mr-kenhoff/XMC_Cleanflight_Doc', 'whutddk/FLIGHT', 'mahakmalik/DroneDeliverySystem', 'germal/rpg_quadrotor_common', 'goosebaobao/instagram-drone', 'eolatham/farm-dashboard-prototype', 'simplonco/ardrone-scripts', 'codenoid/Tectona-Drone-Design', 'germal/rpg_quadrotor_control', 'vrajp21/quadcopter', 'TinkerPal99/PYDrone', 'harithzainudin/DragonFly', 'germal/AAE_Notebook_004_Quaternions', 'germal/AAE_Notebook_007_Bresenham', 'germal/AAE_Notebook_002_GeoNED', 'germal/AAE_Notebook_018_RRT', 'germal/AAE_Notebook_010_VoronoiGraphs', 'seedlit/aerial-sem-seg', 'AgPipeline/transformer-rgb-indices']</t>
+  </si>
+  <si>
+    <t>['drone-plugins/drone-docker', 'drone-plugins/drone-slack', 'drone-plugins/drone-git', 'drone-plugins/drone-webhook', 'drone-plugins/drone-gitea-release', 'drone-plugins/drone-github-release', 'drone-plugins/drone-coverage', 'Drillster/drone-email', 'drone-plugins/drone-s3', 'drone-plugins/drone-s3-cache', 'drone-plugins/drone-downstream', 'drone-plugins/drone-hugo', 'drone-plugins/drone-s3-sync', 'drone-plugins/drone-ansible', 'drone-plugins/drone-slack-blame', 'drone-plugins/drone-ecr', 'drone-plugins/drone-npm', 'drone-plugins/drone-volume-cache', 'drone-plugins/drone-gh-pages', 'drone-plugins/drone-manifest', 'drone-plugins/drone-irc', 'drone-plugins/drone-cache', 'thegeeklab/drone-docker-buildx', 'drone-plugins/drone-pypi', 'drone-plugins/drone-rsync', 'drone-plugins/drone-gpgsign', 'drone-plugins/drone-base', 'drone-plugins/drone-gcs', 'drone-plugins/drone-sftp', 'drone-plugins/drone-matrix', 'Comcast/drone-cloudfoundry', 'drone-plugins/drone-marathon', 'drone-plugins/drone-containership', 'jonasfranz/drone-crowdin', 'drone-plugins/drone-hg', 'drone-plugins/drone-buildah', 'drone-plugins/drone-codecov', 'drone-plugins/drone-devpi', 'drone-plugins/drone-azure-storage', 'drone-plugins/drone-dockerhub', 'drone-plugins/drone-codedeploy', 'go-training/vue-gh-pages-demo', 'drone-plugins/drone-nuget', 'AlbinoDrought/drone-bitbucket-artifacts', 'drone-plugins/drone-bintray', 'drone-plugins/drone-download', 'jetrails/drone-cloudflare-caching', 'uphy/drone-ansible', 'tdakkota/drone-vk', 'zyclonite/drone-webhook', 'drone-plugins/drone-pushover', 'drone-plugins/drone-meltwater-cache', 'kingzcheung/drone-aliyun-oss', 'thegeeklab/drone-github-comment', 'drone-plugins/drone-azure-web-apps', 'drone-plugins/drone-github-release-download', 'drone-plugins/drone-curseforge', 'owncloud-ci/drone-ansible', 'thegeeklab/drone-docker', 'drone-plugins/drone-cloudcontrol', 'matsubara0507/drone-git-with-ssh', 'thegeeklab/drone-plugin-index', 'drone-plugins/drone-deis']</t>
+  </si>
+  <si>
+    <t>['Drillster/drone-volume-cache', 'appleboy/drone-telegram', 'appleboy/drone-git-push', 'appleboy/drone-sftp-cache', 'scottlackey/drone-auth-ecr', 'gamerslouis/drone-rsync-download']</t>
+  </si>
+  <si>
+    <t>['go-training/drone-laravel-example', 'appleboy/ansible-drone', 'armswarm/drone', 'imulab-x/drone-webhook-proxy', 'clayrisser/drone-init', 'mattdavis90/drone-buildah', 'cmur2/asdf-drone']</t>
+  </si>
+  <si>
+    <t>['nlbucki/RAPPIDS', 'XionWin/Tron.Net', 'florianL21/drone-atsam', 'benjaminjnoack/Ian', 'benjaminjnoack/Ivy', 'TomasBouda/Betaflight-configs']</t>
+  </si>
+  <si>
+    <t>['jumpalottahigh/fpvtips', 'dipree/alpaca', 'thisismyrobot/drones', 'Keshav2136/FPV-Life', 'fpvindia/fpv-docs']</t>
+  </si>
+  <si>
+    <t>['appleboy/drone-packer', 'oliver006/drone-gcf', 'jdamata/drone-teams', 'go-training/drone-bash-plugin', 'Dessia-tech/drone-seafile', 'techknowlogick/drone-b2']</t>
+  </si>
+  <si>
+    <t>['ruanbekker/drone-gitea-on-docker', 'gaocegege/dronecraft', 'Juicymo/drone-ruby', 'Juicymo/drone-wall', 'ThiagoBarradas/rancher-drone-nginx']</t>
+  </si>
+  <si>
+    <t>['openppg/eppg-controller', 'ZekeMedley/arduino-drone-pid', 'AiltonOliveir/Maresia-nautidesign', 'lewj85/ArduinoDrone', 'johnsonwust/ArduinoHoverCraft', 'godic97/MCRG-OceanDrone', 'danpham/drone', 'jiankaiwang/flight_control_system']</t>
+  </si>
+  <si>
+    <t>['Roemer/CrazyServ', 'TimKam/crazyflie-on-voice', 'Franky333/crazyflie-firmware', 'arlk/Crazyflie.jl', 'okantorun/Swarm-UAV']</t>
+  </si>
+  <si>
+    <t>['treeandsea/DroneController', 'karlroush/droneSpectrumMap', 'MuonRay/DJI-Drone-DNG-RAW-Batch-Processing-in-Python', 'SVJayanthi/DroneTrafficSimulation', 'BenbenIO/AIY-vision-kit-DRONE']</t>
+  </si>
+  <si>
+    <t>['ansyble/role-drone', 'ansyble/role-drone', 'contraslash/automatic-deployment-drone', 'contraslash/automatic-deployment-drone', 'p404/frone', 'germal/RoadDetector', 'p404/frone', 'germal/RoadDetector']</t>
+  </si>
+  <si>
+    <t>['drone-plugins/drone-opsworks', 'drone-plugins/drone-greenkeeper', 'xoxys/drone-ansible', 'owncloud-ci/drone-downstream', 'Pr0Ger/drone-crane', 'drone-plugins/drone-opsworks', 'drone-plugins/drone-greenkeeper', 'xoxys/drone-ansible', 'owncloud-ci/drone-downstream', 'Pr0Ger/drone-crane']</t>
+  </si>
+  <si>
+    <t>[('drone', 763), ('uav', 125), ('python', 80), ('quadcopter', 74), ('docker', 69), ('ros', 55), ('tello', 55), ('drone-ci', 51), ('robotics', 48), ('drone-plugin', 47), ('arduino', 46), ('ci', 45), ('raspberry-pi', 43), ('drones', 42), ('dji', 35)]</t>
+  </si>
+  <si>
+    <t>[('docker', 16), ('drone', 10), ('git', 4), ('python', 2), ('flask', 1), ('office', 1), ('unittest', 1), ('flask-api', 1), ('flask-restful', 1), ('flask-celery', 1), ('flask-yaml', 1), ('ldap', 1), ('email', 1), ('cloud', 1), ('caddyserver', 1)]</t>
+  </si>
+  <si>
+    <t>[('drone', 113), ('vedio', 4), ('git', 3), ('ssvep', 3), ('mp4', 2), ('bci', 2), ('realtime', 2), ('open-source', 2), ('semantic-segmentation', 2), ('drone-light-show', 2), ('droneshowsoftware', 2), ('droneshowcompany', 2), ('react', 2), ('map', 2), ('animation', 2)]</t>
+  </si>
+  <si>
+    <t>[('drone', 63), ('drone-plugin', 63), ('email', 1), ('smtp', 1), ('notification', 1), ('cloud-foundry', 1), ('crowdin', 1), ('git', 1), ('cloudflare-api', 1), ('cloudflare-caching', 1), ('ansi', 1), ('vk', 1), ('webhook', 1), ('plugins', 1), ('aliyun-oss', 1)]</t>
+  </si>
+  <si>
+    <t>[('docker', 8), ('drone', 6), ('drone-plugin', 6), ('cache', 1), ('telegram', 1), ('telegram-bot', 1), ('telegram-api', 1), ('sftp', 1), ('aws-ec2', 1), ('aws-ecs', 1), ('ecr', 1)]</t>
+  </si>
+  <si>
+    <t>[('drone', 7), ('drone-ci', 7), ('laravel', 1), ('ansi', 1), ('ansible-role', 1), ('arm', 1), ('docker', 1), ('continuous-delivery', 1), ('configuration', 1), ('batch', 1), ('batch-processing', 1), ('buildah', 1), ('asdf', 1), ('asdf-plugin', 1), ('asdf-vm', 1)]</t>
+  </si>
+  <si>
+    <t>[('drone', 6), ('quadcopter', 6), ('cortex-m', 2), ('collision-detection', 1), ('collision-avoidance', 1), ('planning-algorithms', 1), ('dotnet', 1), ('dotnetcore', 1), ('raspberrypi', 1), ('atmel-studio', 1), ('atmega2560', 1), ('atmel-avr-microcontroller', 1), ('lpc546xx', 1), ('kinetis', 1), ('kv31f', 1)]</t>
+  </si>
+  <si>
+    <t>[('drone', 5), ('fpv', 5), ('fpv-racing', 1), ('fpv-drones', 1), ('lightweight', 1), ('alpaca', 1), ('cinematic', 1), ('carbon-fiber', 1), ('betaflight', 1), ('community', 1), ('ecommerce', 1), ('store', 1), ('freestyling', 1)]</t>
+  </si>
+  <si>
+    <t>[('drone', 6), ('drone-plugin', 6), ('drone-ci', 6), ('packer', 1), ('cloud', 1), ('teams', 1), ('seafile', 1), ('backblaze-b2', 1)]</t>
+  </si>
+  <si>
+    <t>[('docker', 8), ('drone', 5), ('drone-ci', 5), ('continuous-delivery', 2), ('git', 1), ('minecraft', 1), ('dockercraft', 1), ('ruby', 1), ('rails', 1), ('ruby-image', 1), ('gamification', 1), ('sql', 1), ('agent', 1), ('monitoring', 1), ('management', 1)]</t>
+  </si>
+  <si>
+    <t>[('arduino', 8), ('drone', 8), ('rs485', 1), ('esc', 1), ('flying', 1), ('samd21', 1), ('paramotor', 1), ('feather', 1), ('motor-controller', 1), ('nautical', 1), ('ocean', 1), ('bldc', 1), ('zigbee', 1), ('wireless-communication', 1)]</t>
+  </si>
+  <si>
+    <t>[('drone', 5), ('crazyflie', 5), ('server', 1), ('bitcraze', 1), ('crazyflie-drone', 1), ('crazyflie-firmware', 1), ('julia', 1), ('crazyswarm', 1), ('swarm-uav', 1)]</t>
+  </si>
+  <si>
+    <t>[('python', 5), ('drone', 5), ('spectrum', 1), ('optimization', 1), ('octave', 1), ('graphical', 1), ('identification', 1), ('signal', 1), ('signal-strength', 1), ('leakage', 1), ('interpolation-methods', 1), ('signal-leakage', 1), ('signal-mapping', 1), ('mobile-receiver', 1), ('image', 1)]</t>
+  </si>
+  <si>
+    <t>[('drone', 8), ('continuous-delivery', 4), ('ansi', 2), ('role', 2), ('automatic-deployment', 2), ('cnn', 2)]</t>
+  </si>
+  <si>
+    <t>[('drone', 10), ('drone-plugin', 10)]</t>
   </si>
 </sst>
 </file>
@@ -419,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,86 +495,212 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>763</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>616</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
